--- a/public/data/2025-2026学年第一学期考试安排表（学院组织）-学生用表.xlsx
+++ b/public/data/2025-2026学年第一学期考试安排表（学院组织）-学生用表.xlsx
@@ -8645,7 +8645,7 @@
   <dimension ref="A1:I3082"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
